--- a/medicine/Enfance/Philippe_Gourdin/Philippe_Gourdin.xlsx
+++ b/medicine/Enfance/Philippe_Gourdin/Philippe_Gourdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Gourdin, né le 5 avril 1967 à Paris, est un auteur de romans et de nouvelles. Il écrit des textes pour jeunes et adultes. Il est mort le 31 juillet 2021.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Gourdin publie un premier roman confidentiel à l'âge de 18 ans. C'est lors de sa convalescence après une grave maladie qu'il se remet, vingt ans après, à écrire. Il publie Les onze lettres de mon père, puis il suit deux voies : la littérature jeunesse et la littérature adulte.
 En littérature jeunesse, il développe sa propre série de romans d'aventure « Blanche et les 3 créatures », « Blanche et les 3 lettres », « Blanche et les 3 Ziems » ; il participe également à la collection « Detectivarium », série de romans policiers pour les 10-15 ans, animée par une douzaine d'auteurs. Puis les Éditions A&amp;H lui confient une collection de romans policiers pour la jeunesse.
 Il conçoit et publie également de albums jeunesse.
 En littérature adulte, il crée deux concepts éditoriaux : un roman dont les chapitres peuvent être lus dans l'ordre que l'on veut (Une vie... sept avis) et un recueil de nouvelles à destination du monde associatif où tous les bénéfices sont reversés aux  projets de ces dernières (D'émoi et d'émoi). En 2020, il a publié une dizaine de romans.
-Enfin, frappé une nouvelle fois par la maladie, il est l'auteur d'un livre Je suis né trois fois , témoignage qui constitue un livre référence pour la lutte contre le cancer[1]. 
-Il co-anime la chaîne Youtube Je suis né trois fois qui propose des vidéos de soutien aux personnes confrontés à des traumatismes de la vie comme le cancer[1].
+Enfin, frappé une nouvelle fois par la maladie, il est l'auteur d'un livre Je suis né trois fois , témoignage qui constitue un livre référence pour la lutte contre le cancer. 
+Il co-anime la chaîne Youtube Je suis né trois fois qui propose des vidéos de soutien aux personnes confrontés à des traumatismes de la vie comme le cancer.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il, Ed. Debresse, 1985
 Les Onze Lettres de mon père, Ed. de l'Officine, 2005  (ISBN 2-915680-14-0)
@@ -589,7 +605,9 @@
           <t>Recueils de nouvelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Secondes qui changent tout, Ed. de l'Officine, 2008  (ISBN 978-2-35551-015-1)
 D'émoi et d'émoi, Auto-édition, Projet associatif, 2012  (ISBN 978-2-7466-4864-7)</t>
@@ -620,7 +638,9 @@
           <t>Romans pour la jeunesse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blanche et les 3 créatures, Ed. de l'Officine, 2007  (ISBN 2-915680-80-9)
 Blanche et les 3 lettres, Ed. de l'Officine, 2010  (ISBN 978-2-35551-087-8)
@@ -658,7 +678,9 @@
           <t>Albums jeunesse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les perroquets jaunes du capitaine Pouic, Ed. Le miroir aux troubles, 2018  (ISBN 979-1093-585727)
 Princesse Nian Nian, Ed. A &amp; H, 2019,  (ISBN 979-10-95857-16-7)
@@ -691,7 +713,9 @@
           <t>Témoignage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Je suis né trois fois, Fauves Édition, 2018  (ISBN 979-10-302-0092-8)</t>
         </is>
@@ -721,7 +745,9 @@
           <t>Humour</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le manuel du gai rire, Édition Grrr...art, 2018  (ISBN 978-2365-921121)</t>
         </is>
